--- a/biology/Zoologie/Heliconius_elevatus/Heliconius_elevatus.xlsx
+++ b/biology/Zoologie/Heliconius_elevatus/Heliconius_elevatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius elevatus est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Heliconiinae et du genre Heliconius.
 </t>
@@ -511,11 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Heliconius elevatus a été décrite en 1901 par l'entomologiste Émile Nöldner (d)[1],[2].
-Phylogenèse
-Une étude parue dans la revue Nature le 17 avril 2024, menée par des chercheurs des universités de York et de Harvard, démontre que l'espèce Heliconius elevatus est née du croisement de deux autres espèces, il y a environ 180 000 ans : Heliconius pardalinus et Heliconius melpomene[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Heliconius elevatus a été décrite en 1901 par l'entomologiste Émile Nöldner (d),.
 </t>
         </is>
       </c>
@@ -541,15 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon aux ailes allongées et arrondies de couleur marron et orange. Les ailes antérieures ont une partie basale orange et le reste marron avec une barre partielle de taches jaune pâle limitant l'apex marron. Les ailes postérieures sont marron avec une partie basale orange et des  lignes orange qui en sont séparées et vont jusqu'à la marge.
-Le revers est semblable.
-Chenilles
-La chenille est blanche des taches et des épines noires avec une tête orange[4].
+          <t>Phylogenèse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude parue dans la revue Nature le 17 avril 2024, menée par des chercheurs des universités de York et de Harvard, démontre que l'espèce Heliconius elevatus est née du croisement de deux autres espèces, il y a environ 180 000 ans : Heliconius pardalinus et Heliconius melpomene.
 </t>
         </is>
       </c>
@@ -575,13 +590,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes sont des Granadilla (Passifloraceae)[4].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon aux ailes allongées et arrondies de couleur marron et orange. Les ailes antérieures ont une partie basale orange et le reste marron avec une barre partielle de taches jaune pâle limitant l'apex marron. Les ailes postérieures sont marron avec une partie basale orange et des  lignes orange qui en sont séparées et vont jusqu'à la marge.
+Le revers est semblable.
 </t>
         </is>
       </c>
@@ -607,14 +624,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent en Bolivie, au Brésil, en Équateur, au Guyana, en Guyane, au Pérou et au Venezuela[5].
-Biotope
-Il vit dans la canopée de la forêt tropicale amazonienne[4].
+          <t>Chenilles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est blanche des taches et des épines noires avec une tête orange.
 </t>
         </is>
       </c>
@@ -640,12 +661,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Synonymie</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Heliconius elevatus f griseoviridis Neustetter, 1901</t>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des Granadilla (Passifloraceae).
+</t>
         </is>
       </c>
     </row>
@@ -670,12 +698,116 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Bolivie, au Brésil, en Équateur, au Guyana, en Guyane, au Pérou et au Venezuela.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_elevatus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_elevatus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit dans la canopée de la forêt tropicale amazonienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_elevatus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_elevatus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Heliconius elevatus f griseoviridis Neustetter, 1901</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Heliconius_elevatus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_elevatus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sous-espèces[5].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sous-espèces.
 Heliconius elevatus elevatus ; Pérou
 Heliconius elevatus bari Oberthür, 1902 ; Guyana, Guyane
 Heliconius elevatus lapis Lamas, 1976 ; Pérou
@@ -691,31 +823,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Heliconius_elevatus</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_elevatus</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Heliconius_elevatus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_elevatus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>(de) E. Nöldner, « Zwei neue Heliconius », Berliner Entomologische Zeitschrift, Berlin, Nicolaische Verlags-Buchhandlung et R. Friedländer &amp; Sohn (d), vol. 46,‎ 4 mars 1901, p. 5-8 (ISSN 0863-1875, OCLC 7723931, lire en ligne)</t>
         </is>
